--- a/testfolder/testfile.xlsx
+++ b/testfolder/testfile.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elever" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timer" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -421,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +462,207 @@
         <v>13241324</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>qwfqwef</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>123123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>wwerwer</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>234525</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>wewewert</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12431234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>asdfasf</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7896789</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>efjfjornf</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>anna.stray.rongve@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>93649449</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>elev</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>nnnn</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12341243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Kundenummer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>04.10.2021</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3412</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>04.10.2021</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testfolder/testfile.xlsx
+++ b/testfolder/testfile.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elever" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timer" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -593,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +664,389 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2021.10.04.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2021.10.04.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2021.10.04.</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>210797</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>210797</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>210797</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>210797</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date_month</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2021-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2021-12</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/testfolder/testfile.xlsx
+++ b/testfolder/testfile.xlsx
@@ -3,29 +3,42 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1840" yWindow="1830" windowWidth="14400" windowHeight="7270" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="elever" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timer" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sum måneder" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -39,12 +52,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,9 +100,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -407,11 +457,11 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -423,165 +473,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Navn</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Telefonnummer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>efqef</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13241324</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>qwfqwef</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>123123</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>wwerwer</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>234525</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>wewewert</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12431234</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>asdfasf</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7896789</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>efjfjornf</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>anna.stray.rongve@gmail.com</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>93649449</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>elev</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>nnnn</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>12341243</v>
-      </c>
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -594,31 +497,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="13.6328125" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Hours</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Kundenummer</t>
         </is>
@@ -913,6 +819,942 @@
         <v>210797</v>
       </c>
       <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>210797</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>210797</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2021.10.04</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4545</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>45345</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3445</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2021.10.13</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -927,13 +1769,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -957,95 +1799,1174 @@
         <v>1000</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F375"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>599191</v>
+      </c>
+    </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2000</v>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2021-01</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2021-11</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2021-12</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022-12</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>100</v>
-      </c>
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="C15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="C21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="C23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="C24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="C25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="C26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="C27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="C28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="C29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="C31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="C33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="C34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="C35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="C36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="C38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="C41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="C42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="C43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="C44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="C45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="C46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="C47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="C48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="C49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="C50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="C51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="C52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="C53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="C54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="C55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="C56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="C57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="C58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="C59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="C60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="C61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="C62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="C63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="C64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="C65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="C66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="C67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="C68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="C69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="C70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="C71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="C73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="C74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="C75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="C76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="C77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="C86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="C87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="C88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="C89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="C90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="C92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="C93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="C94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="C95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="C96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="C97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="C98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="C99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="C100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="C101" s="2" t="n"/>
+    </row>
+    <row r="102">
+      <c r="C102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="C103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="C104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="C105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="C106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="C107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="C108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="C109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="C110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="C111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="C112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="C113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="C114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="C115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="C116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="C117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="C118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="C119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="C120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="C121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="C122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="C123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="C124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="C125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="C126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="C127" s="2" t="n"/>
+    </row>
+    <row r="128">
+      <c r="C128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="C129" s="2" t="n"/>
+    </row>
+    <row r="130">
+      <c r="C130" s="2" t="n"/>
+    </row>
+    <row r="131">
+      <c r="C131" s="2" t="n"/>
+    </row>
+    <row r="132">
+      <c r="C132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="C133" s="2" t="n"/>
+    </row>
+    <row r="134">
+      <c r="C134" s="2" t="n"/>
+    </row>
+    <row r="135">
+      <c r="C135" s="2" t="n"/>
+    </row>
+    <row r="136">
+      <c r="C136" s="2" t="n"/>
+    </row>
+    <row r="137">
+      <c r="C137" s="2" t="n"/>
+    </row>
+    <row r="138">
+      <c r="C138" s="2" t="n"/>
+    </row>
+    <row r="139">
+      <c r="C139" s="2" t="n"/>
+    </row>
+    <row r="140">
+      <c r="C140" s="2" t="n"/>
+    </row>
+    <row r="141">
+      <c r="C141" s="2" t="n"/>
+    </row>
+    <row r="142">
+      <c r="C142" s="2" t="n"/>
+    </row>
+    <row r="143">
+      <c r="C143" s="2" t="n"/>
+    </row>
+    <row r="144">
+      <c r="C144" s="2" t="n"/>
+    </row>
+    <row r="145">
+      <c r="C145" s="2" t="n"/>
+    </row>
+    <row r="146">
+      <c r="C146" s="2" t="n"/>
+    </row>
+    <row r="147">
+      <c r="C147" s="2" t="n"/>
+    </row>
+    <row r="148">
+      <c r="C148" s="2" t="n"/>
+    </row>
+    <row r="149">
+      <c r="C149" s="2" t="n"/>
+    </row>
+    <row r="150">
+      <c r="C150" s="2" t="n"/>
+    </row>
+    <row r="151">
+      <c r="C151" s="2" t="n"/>
+    </row>
+    <row r="152">
+      <c r="C152" s="2" t="n"/>
+    </row>
+    <row r="153">
+      <c r="C153" s="2" t="n"/>
+    </row>
+    <row r="154">
+      <c r="C154" s="2" t="n"/>
+    </row>
+    <row r="155">
+      <c r="C155" s="2" t="n"/>
+    </row>
+    <row r="156">
+      <c r="C156" s="2" t="n"/>
+    </row>
+    <row r="157">
+      <c r="C157" s="2" t="n"/>
+    </row>
+    <row r="158">
+      <c r="C158" s="2" t="n"/>
+    </row>
+    <row r="159">
+      <c r="C159" s="2" t="n"/>
+    </row>
+    <row r="160">
+      <c r="C160" s="2" t="n"/>
+    </row>
+    <row r="161">
+      <c r="C161" s="2" t="n"/>
+    </row>
+    <row r="162">
+      <c r="C162" s="2" t="n"/>
+    </row>
+    <row r="163">
+      <c r="C163" s="2" t="n"/>
+    </row>
+    <row r="164">
+      <c r="C164" s="2" t="n"/>
+    </row>
+    <row r="165">
+      <c r="C165" s="2" t="n"/>
+    </row>
+    <row r="166">
+      <c r="C166" s="2" t="n"/>
+    </row>
+    <row r="167">
+      <c r="C167" s="2" t="n"/>
+    </row>
+    <row r="168">
+      <c r="C168" s="2" t="n"/>
+    </row>
+    <row r="169">
+      <c r="C169" s="2" t="n"/>
+    </row>
+    <row r="170">
+      <c r="C170" s="2" t="n"/>
+    </row>
+    <row r="171">
+      <c r="C171" s="2" t="n"/>
+    </row>
+    <row r="172">
+      <c r="C172" s="2" t="n"/>
+    </row>
+    <row r="173">
+      <c r="C173" s="2" t="n"/>
+    </row>
+    <row r="174">
+      <c r="C174" s="2" t="n"/>
+    </row>
+    <row r="175">
+      <c r="C175" s="2" t="n"/>
+    </row>
+    <row r="176">
+      <c r="C176" s="2" t="n"/>
+    </row>
+    <row r="177">
+      <c r="C177" s="2" t="n"/>
+    </row>
+    <row r="178">
+      <c r="C178" s="2" t="n"/>
+    </row>
+    <row r="179">
+      <c r="C179" s="2" t="n"/>
+    </row>
+    <row r="180">
+      <c r="C180" s="2" t="n"/>
+    </row>
+    <row r="181">
+      <c r="C181" s="2" t="n"/>
+    </row>
+    <row r="182">
+      <c r="C182" s="2" t="n"/>
+    </row>
+    <row r="183">
+      <c r="C183" s="2" t="n"/>
+    </row>
+    <row r="184">
+      <c r="C184" s="2" t="n"/>
+    </row>
+    <row r="185">
+      <c r="C185" s="2" t="n"/>
+    </row>
+    <row r="186">
+      <c r="C186" s="2" t="n"/>
+    </row>
+    <row r="187">
+      <c r="C187" s="2" t="n"/>
+    </row>
+    <row r="188">
+      <c r="C188" s="2" t="n"/>
+    </row>
+    <row r="189">
+      <c r="C189" s="2" t="n"/>
+    </row>
+    <row r="190">
+      <c r="C190" s="2" t="n"/>
+    </row>
+    <row r="191">
+      <c r="C191" s="2" t="n"/>
+    </row>
+    <row r="192">
+      <c r="C192" s="2" t="n"/>
+    </row>
+    <row r="193">
+      <c r="C193" s="2" t="n"/>
+    </row>
+    <row r="194">
+      <c r="C194" s="2" t="n"/>
+    </row>
+    <row r="195">
+      <c r="C195" s="2" t="n"/>
+    </row>
+    <row r="196">
+      <c r="C196" s="2" t="n"/>
+    </row>
+    <row r="197">
+      <c r="C197" s="2" t="n"/>
+    </row>
+    <row r="198">
+      <c r="C198" s="2" t="n"/>
+    </row>
+    <row r="199">
+      <c r="C199" s="2" t="n"/>
+    </row>
+    <row r="200">
+      <c r="C200" s="2" t="n"/>
+    </row>
+    <row r="201">
+      <c r="C201" s="2" t="n"/>
+    </row>
+    <row r="202">
+      <c r="C202" s="2" t="n"/>
+    </row>
+    <row r="203">
+      <c r="C203" s="2" t="n"/>
+    </row>
+    <row r="204">
+      <c r="C204" s="2" t="n"/>
+    </row>
+    <row r="205">
+      <c r="C205" s="2" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="2" t="n"/>
+    </row>
+    <row r="207">
+      <c r="C207" s="2" t="n"/>
+    </row>
+    <row r="208">
+      <c r="C208" s="2" t="n"/>
+    </row>
+    <row r="209">
+      <c r="C209" s="2" t="n"/>
+    </row>
+    <row r="210">
+      <c r="C210" s="2" t="n"/>
+    </row>
+    <row r="211">
+      <c r="C211" s="2" t="n"/>
+    </row>
+    <row r="212">
+      <c r="C212" s="2" t="n"/>
+    </row>
+    <row r="213">
+      <c r="C213" s="2" t="n"/>
+    </row>
+    <row r="214">
+      <c r="C214" s="2" t="n"/>
+    </row>
+    <row r="215">
+      <c r="C215" s="2" t="n"/>
+    </row>
+    <row r="216">
+      <c r="C216" s="2" t="n"/>
+    </row>
+    <row r="217">
+      <c r="C217" s="2" t="n"/>
+    </row>
+    <row r="218">
+      <c r="C218" s="2" t="n"/>
+    </row>
+    <row r="219">
+      <c r="C219" s="2" t="n"/>
+    </row>
+    <row r="220">
+      <c r="C220" s="2" t="n"/>
+    </row>
+    <row r="221">
+      <c r="C221" s="2" t="n"/>
+    </row>
+    <row r="222">
+      <c r="C222" s="2" t="n"/>
+    </row>
+    <row r="223">
+      <c r="C223" s="2" t="n"/>
+    </row>
+    <row r="224">
+      <c r="C224" s="2" t="n"/>
+    </row>
+    <row r="225">
+      <c r="C225" s="2" t="n"/>
+    </row>
+    <row r="226">
+      <c r="C226" s="2" t="n"/>
+    </row>
+    <row r="227">
+      <c r="C227" s="2" t="n"/>
+    </row>
+    <row r="228">
+      <c r="C228" s="2" t="n"/>
+    </row>
+    <row r="229">
+      <c r="C229" s="2" t="n"/>
+    </row>
+    <row r="230">
+      <c r="C230" s="2" t="n"/>
+    </row>
+    <row r="231">
+      <c r="C231" s="2" t="n"/>
+    </row>
+    <row r="232">
+      <c r="C232" s="2" t="n"/>
+    </row>
+    <row r="233">
+      <c r="C233" s="2" t="n"/>
+    </row>
+    <row r="234">
+      <c r="C234" s="2" t="n"/>
+    </row>
+    <row r="235">
+      <c r="C235" s="2" t="n"/>
+    </row>
+    <row r="236">
+      <c r="C236" s="2" t="n"/>
+    </row>
+    <row r="237">
+      <c r="C237" s="2" t="n"/>
+    </row>
+    <row r="238">
+      <c r="C238" s="2" t="n"/>
+    </row>
+    <row r="239">
+      <c r="C239" s="2" t="n"/>
+    </row>
+    <row r="240">
+      <c r="C240" s="2" t="n"/>
+    </row>
+    <row r="241">
+      <c r="C241" s="2" t="n"/>
+    </row>
+    <row r="242">
+      <c r="C242" s="2" t="n"/>
+    </row>
+    <row r="243">
+      <c r="C243" s="2" t="n"/>
+    </row>
+    <row r="244">
+      <c r="C244" s="2" t="n"/>
+    </row>
+    <row r="245">
+      <c r="C245" s="2" t="n"/>
+    </row>
+    <row r="246">
+      <c r="C246" s="2" t="n"/>
+    </row>
+    <row r="247">
+      <c r="C247" s="2" t="n"/>
+    </row>
+    <row r="248">
+      <c r="C248" s="2" t="n"/>
+    </row>
+    <row r="249">
+      <c r="C249" s="2" t="n"/>
+    </row>
+    <row r="250">
+      <c r="C250" s="2" t="n"/>
+    </row>
+    <row r="251">
+      <c r="C251" s="2" t="n"/>
+    </row>
+    <row r="252">
+      <c r="C252" s="2" t="n"/>
+    </row>
+    <row r="253">
+      <c r="C253" s="2" t="n"/>
+    </row>
+    <row r="254">
+      <c r="C254" s="2" t="n"/>
+    </row>
+    <row r="255">
+      <c r="C255" s="2" t="n"/>
+    </row>
+    <row r="256">
+      <c r="C256" s="2" t="n"/>
+    </row>
+    <row r="257">
+      <c r="C257" s="2" t="n"/>
+    </row>
+    <row r="258">
+      <c r="C258" s="2" t="n"/>
+    </row>
+    <row r="259">
+      <c r="C259" s="2" t="n"/>
+    </row>
+    <row r="260">
+      <c r="C260" s="2" t="n"/>
+    </row>
+    <row r="261">
+      <c r="C261" s="2" t="n"/>
+    </row>
+    <row r="262">
+      <c r="C262" s="2" t="n"/>
+    </row>
+    <row r="263">
+      <c r="C263" s="2" t="n"/>
+    </row>
+    <row r="264">
+      <c r="C264" s="2" t="n"/>
+    </row>
+    <row r="265">
+      <c r="C265" s="2" t="n"/>
+    </row>
+    <row r="266">
+      <c r="C266" s="2" t="n"/>
+    </row>
+    <row r="267">
+      <c r="C267" s="2" t="n"/>
+    </row>
+    <row r="268">
+      <c r="C268" s="2" t="n"/>
+    </row>
+    <row r="269">
+      <c r="C269" s="2" t="n"/>
+    </row>
+    <row r="270">
+      <c r="C270" s="2" t="n"/>
+    </row>
+    <row r="271">
+      <c r="C271" s="2" t="n"/>
+    </row>
+    <row r="272">
+      <c r="C272" s="2" t="n"/>
+    </row>
+    <row r="273">
+      <c r="C273" s="2" t="n"/>
+    </row>
+    <row r="274">
+      <c r="C274" s="2" t="n"/>
+    </row>
+    <row r="275">
+      <c r="C275" s="2" t="n"/>
+    </row>
+    <row r="276">
+      <c r="C276" s="2" t="n"/>
+    </row>
+    <row r="277">
+      <c r="C277" s="2" t="n"/>
+    </row>
+    <row r="278">
+      <c r="C278" s="2" t="n"/>
+    </row>
+    <row r="279">
+      <c r="C279" s="2" t="n"/>
+    </row>
+    <row r="280">
+      <c r="C280" s="2" t="n"/>
+    </row>
+    <row r="281">
+      <c r="C281" s="2" t="n"/>
+    </row>
+    <row r="282">
+      <c r="C282" s="2" t="n"/>
+    </row>
+    <row r="283">
+      <c r="C283" s="2" t="n"/>
+    </row>
+    <row r="284">
+      <c r="C284" s="2" t="n"/>
+    </row>
+    <row r="285">
+      <c r="C285" s="2" t="n"/>
+    </row>
+    <row r="286">
+      <c r="C286" s="2" t="n"/>
+    </row>
+    <row r="287">
+      <c r="C287" s="2" t="n"/>
+    </row>
+    <row r="288">
+      <c r="C288" s="2" t="n"/>
+    </row>
+    <row r="289">
+      <c r="C289" s="2" t="n"/>
+    </row>
+    <row r="290">
+      <c r="C290" s="2" t="n"/>
+    </row>
+    <row r="291">
+      <c r="C291" s="2" t="n"/>
+    </row>
+    <row r="292">
+      <c r="C292" s="2" t="n"/>
+    </row>
+    <row r="293">
+      <c r="C293" s="2" t="n"/>
+    </row>
+    <row r="294">
+      <c r="C294" s="2" t="n"/>
+    </row>
+    <row r="295">
+      <c r="C295" s="2" t="n"/>
+    </row>
+    <row r="296">
+      <c r="C296" s="2" t="n"/>
+    </row>
+    <row r="297">
+      <c r="C297" s="2" t="n"/>
+    </row>
+    <row r="298">
+      <c r="C298" s="2" t="n"/>
+    </row>
+    <row r="299">
+      <c r="C299" s="2" t="n"/>
+    </row>
+    <row r="300">
+      <c r="C300" s="2" t="n"/>
+    </row>
+    <row r="301">
+      <c r="C301" s="2" t="n"/>
+    </row>
+    <row r="302">
+      <c r="C302" s="2" t="n"/>
+    </row>
+    <row r="303">
+      <c r="C303" s="2" t="n"/>
+    </row>
+    <row r="304">
+      <c r="C304" s="2" t="n"/>
+    </row>
+    <row r="305">
+      <c r="C305" s="2" t="n"/>
+    </row>
+    <row r="306">
+      <c r="C306" s="2" t="n"/>
+    </row>
+    <row r="307">
+      <c r="C307" s="2" t="n"/>
+    </row>
+    <row r="308">
+      <c r="C308" s="2" t="n"/>
+    </row>
+    <row r="309">
+      <c r="C309" s="2" t="n"/>
+    </row>
+    <row r="310">
+      <c r="C310" s="2" t="n"/>
+    </row>
+    <row r="311">
+      <c r="C311" s="2" t="n"/>
+    </row>
+    <row r="312">
+      <c r="C312" s="2" t="n"/>
+    </row>
+    <row r="313">
+      <c r="C313" s="2" t="n"/>
+    </row>
+    <row r="314">
+      <c r="C314" s="2" t="n"/>
+    </row>
+    <row r="315">
+      <c r="C315" s="2" t="n"/>
+    </row>
+    <row r="316">
+      <c r="C316" s="2" t="n"/>
+    </row>
+    <row r="317">
+      <c r="C317" s="2" t="n"/>
+    </row>
+    <row r="318">
+      <c r="C318" s="2" t="n"/>
+    </row>
+    <row r="319">
+      <c r="C319" s="2" t="n"/>
+    </row>
+    <row r="320">
+      <c r="C320" s="2" t="n"/>
+    </row>
+    <row r="321">
+      <c r="C321" s="2" t="n"/>
+    </row>
+    <row r="322">
+      <c r="C322" s="2" t="n"/>
+    </row>
+    <row r="323">
+      <c r="C323" s="2" t="n"/>
+    </row>
+    <row r="324">
+      <c r="C324" s="2" t="n"/>
+    </row>
+    <row r="325">
+      <c r="C325" s="2" t="n"/>
+    </row>
+    <row r="326">
+      <c r="C326" s="2" t="n"/>
+    </row>
+    <row r="327">
+      <c r="C327" s="2" t="n"/>
+    </row>
+    <row r="328">
+      <c r="C328" s="2" t="n"/>
+    </row>
+    <row r="329">
+      <c r="C329" s="2" t="n"/>
+    </row>
+    <row r="330">
+      <c r="C330" s="2" t="n"/>
+    </row>
+    <row r="331">
+      <c r="C331" s="2" t="n"/>
+    </row>
+    <row r="332">
+      <c r="C332" s="2" t="n"/>
+    </row>
+    <row r="333">
+      <c r="C333" s="2" t="n"/>
+    </row>
+    <row r="334">
+      <c r="C334" s="2" t="n"/>
+    </row>
+    <row r="335">
+      <c r="C335" s="2" t="n"/>
+    </row>
+    <row r="336">
+      <c r="C336" s="2" t="n"/>
+    </row>
+    <row r="337">
+      <c r="C337" s="2" t="n"/>
+    </row>
+    <row r="338">
+      <c r="C338" s="2" t="n"/>
+    </row>
+    <row r="339">
+      <c r="C339" s="2" t="n"/>
+    </row>
+    <row r="340">
+      <c r="C340" s="2" t="n"/>
+    </row>
+    <row r="341">
+      <c r="C341" s="2" t="n"/>
+    </row>
+    <row r="342">
+      <c r="C342" s="2" t="n"/>
+    </row>
+    <row r="343">
+      <c r="C343" s="2" t="n"/>
+    </row>
+    <row r="344">
+      <c r="C344" s="2" t="n"/>
+    </row>
+    <row r="345">
+      <c r="C345" s="2" t="n"/>
+    </row>
+    <row r="346">
+      <c r="C346" s="2" t="n"/>
+    </row>
+    <row r="347">
+      <c r="C347" s="2" t="n"/>
+    </row>
+    <row r="348">
+      <c r="C348" s="2" t="n"/>
+    </row>
+    <row r="349">
+      <c r="C349" s="2" t="n"/>
+    </row>
+    <row r="350">
+      <c r="C350" s="2" t="n"/>
+    </row>
+    <row r="351">
+      <c r="C351" s="2" t="n"/>
+    </row>
+    <row r="352">
+      <c r="C352" s="2" t="n"/>
+    </row>
+    <row r="353">
+      <c r="C353" s="2" t="n"/>
+    </row>
+    <row r="354">
+      <c r="C354" s="2" t="n"/>
+    </row>
+    <row r="355">
+      <c r="C355" s="2" t="n"/>
+    </row>
+    <row r="356">
+      <c r="C356" s="2" t="n"/>
+    </row>
+    <row r="357">
+      <c r="C357" s="2" t="n"/>
+    </row>
+    <row r="358">
+      <c r="C358" s="2" t="n"/>
+    </row>
+    <row r="359">
+      <c r="C359" s="2" t="n"/>
+    </row>
+    <row r="360">
+      <c r="C360" s="2" t="n"/>
+    </row>
+    <row r="361">
+      <c r="C361" s="2" t="n"/>
+    </row>
+    <row r="362">
+      <c r="C362" s="2" t="n"/>
+    </row>
+    <row r="363">
+      <c r="C363" s="2" t="n"/>
+    </row>
+    <row r="364">
+      <c r="C364" s="2" t="n"/>
+    </row>
+    <row r="365">
+      <c r="C365" s="2" t="n"/>
+    </row>
+    <row r="366">
+      <c r="C366" s="2" t="n"/>
+    </row>
+    <row r="367">
+      <c r="C367" s="2" t="n"/>
+    </row>
+    <row r="368">
+      <c r="C368" s="2" t="n"/>
+    </row>
+    <row r="369">
+      <c r="C369" s="2" t="n"/>
+    </row>
+    <row r="370">
+      <c r="C370" s="2" t="n"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n"/>
+      <c r="B375" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
